--- a/result/gr100_07_simulated/details.xlsx
+++ b/result/gr100_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9419722557067871</v>
+        <v>0.7220110893249512</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1878.986431858559</v>
+        <v>1823.946026437212</v>
       </c>
       <c r="F2" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09898787435351261</v>
+        <v>0.09755426506924006</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07994122124216846</v>
+        <v>0.07550795654597584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06740774042001473</v>
+        <v>0.06697381020525341</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05806652802326877</v>
+        <v>0.05987593863057437</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05336768350827467</v>
+        <v>0.05574161441637548</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05095155807462776</v>
+        <v>0.04823549533296802</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04875768146835205</v>
+        <v>0.04595180715092104</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04673532328297696</v>
+        <v>0.04441975026484835</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04350579534978391</v>
+        <v>0.04276830668710583</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04249451690063811</v>
+        <v>0.04080214802851328</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04089343524612612</v>
+        <v>0.04000859774249649</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04048563209925075</v>
+        <v>0.03877391321004008</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03957167824520585</v>
+        <v>0.03858781520965183</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03835596000877419</v>
+        <v>0.0374887958356401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03783228131166781</v>
+        <v>0.0369286922833125</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03772937831967296</v>
+        <v>0.03672369529029165</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03717984748106195</v>
+        <v>0.03616662572769774</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03686527020087966</v>
+        <v>0.03599851515851746</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03662741582570289</v>
+        <v>0.03555450343932186</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9610326290130615</v>
+        <v>0.8376443386077881</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2013.162574896593</v>
+        <v>1920.719378025262</v>
       </c>
       <c r="F3" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09779009971574033</v>
+        <v>0.09607233796459398</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08375309459867451</v>
+        <v>0.08433468883053087</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07059505913771739</v>
+        <v>0.07376400577307486</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06102581226968923</v>
+        <v>0.06089228016560137</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05682121970081035</v>
+        <v>0.05560544506762369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05271296471941828</v>
+        <v>0.05073648509466843</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04867627959783583</v>
+        <v>0.04898786712668331</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04676360612558945</v>
+        <v>0.04535042575653891</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04578900651181159</v>
+        <v>0.04351389479441652</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04340666595797393</v>
+        <v>0.04163223637581933</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04252595520035528</v>
+        <v>0.04141649103004245</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04212440489379401</v>
+        <v>0.03982333529340368</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04150998381010827</v>
+        <v>0.03982333529340368</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04087505095691216</v>
+        <v>0.03898243912339753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04059069042976506</v>
+        <v>0.0383735856373338</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04037073799070862</v>
+        <v>0.03809145371784466</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03955859379583913</v>
+        <v>0.03781107411420781</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03929638570827868</v>
+        <v>0.03749893669352677</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03924293518316944</v>
+        <v>0.03744092354825071</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8020384311676025</v>
+        <v>0.7041990756988525</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1899.628570753433</v>
+        <v>1886.015702659501</v>
       </c>
       <c r="F4" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1045201914823499</v>
+        <v>0.1037707458911285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07978902734571201</v>
+        <v>0.07992326389406258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06861443486537273</v>
+        <v>0.06791069735184614</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0621063968873864</v>
+        <v>0.06163287338387032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05666658887991248</v>
+        <v>0.05591880462104015</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05141387522251677</v>
+        <v>0.05220236302705725</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04850542999011884</v>
+        <v>0.04951235336616199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04646771053956905</v>
+        <v>0.04667236603712394</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04475853424839899</v>
+        <v>0.04471364762593191</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04225948154698149</v>
+        <v>0.04278368768147681</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04061924737591083</v>
+        <v>0.04218357575354013</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03993553371016965</v>
+        <v>0.03932815765306952</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03909740174322254</v>
+        <v>0.03883567549070741</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03836683368927281</v>
+        <v>0.03818919790285589</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03796470296166515</v>
+        <v>0.03762709490733979</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03761924565066417</v>
+        <v>0.03726176753103055</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03744019572183888</v>
+        <v>0.03702184489040632</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03716119075202294</v>
+        <v>0.0368001986716062</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03702979670084665</v>
+        <v>0.03676443864833333</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9549634456634521</v>
+        <v>0.7344028949737549</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1844.38590265369</v>
+        <v>1931.105843338913</v>
       </c>
       <c r="F5" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1055975041869647</v>
+        <v>0.09972497870805652</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08027847279816314</v>
+        <v>0.07513082189433373</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06911932217495946</v>
+        <v>0.06854983708743935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05999188704351026</v>
+        <v>0.06243985869062176</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05474298782362575</v>
+        <v>0.05725564188087752</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05125404372157333</v>
+        <v>0.05168611458303569</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04710513498079411</v>
+        <v>0.04869201823428484</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04523499388479391</v>
+        <v>0.0462414341308875</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0430031171584752</v>
+        <v>0.04383203667808887</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04164212550557062</v>
+        <v>0.04208470042088369</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03990061560648546</v>
+        <v>0.04095163990377351</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03924617892456762</v>
+        <v>0.03961527453832409</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03809454462729645</v>
+        <v>0.03831237853053068</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03777442365509646</v>
+        <v>0.03831237853053068</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03726199598257099</v>
+        <v>0.03831237853053068</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0367199666891859</v>
+        <v>0.03826520469065586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03610711394513683</v>
+        <v>0.03808250152023961</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03610252989865209</v>
+        <v>0.03781917945394159</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03595294157219668</v>
+        <v>0.03764338875904314</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.922025203704834</v>
+        <v>0.7187607288360596</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1830.466741526679</v>
+        <v>1884.856715977297</v>
       </c>
       <c r="F6" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09247873010882625</v>
+        <v>0.1014846073387392</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07457804784815553</v>
+        <v>0.08414089153894179</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06709328601816962</v>
+        <v>0.07123269455373123</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05860574596022011</v>
+        <v>0.06055507959823386</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0542327137590608</v>
+        <v>0.05499682706365457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05074276188189385</v>
+        <v>0.05108291196578486</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0473977713134222</v>
+        <v>0.04760584005438271</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04425725803846848</v>
+        <v>0.04477477974950918</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04176801759943307</v>
+        <v>0.04277751515394787</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04078769807695101</v>
+        <v>0.04118777923749412</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03979103985412718</v>
+        <v>0.04059687347772081</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03947990034777459</v>
+        <v>0.03993539287764056</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0379515348048142</v>
+        <v>0.03916631684820188</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03705972320075366</v>
+        <v>0.03812719086749505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03679982770622656</v>
+        <v>0.03746007862497041</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03651992299256291</v>
+        <v>0.03739243728132347</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03602069986972344</v>
+        <v>0.03722061967454487</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03580908735435691</v>
+        <v>0.03702335885966018</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0356816128952569</v>
+        <v>0.03674184631534692</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.010954618453979</v>
+        <v>0.7187397480010986</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1885.036157774135</v>
+        <v>1854.940983446664</v>
       </c>
       <c r="F7" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0992916579615394</v>
+        <v>0.1089045159863328</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08695946313222234</v>
+        <v>0.08421659745009211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07470811087549245</v>
+        <v>0.0700224624433204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06612801980702207</v>
+        <v>0.06279322913652802</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05957737362924703</v>
+        <v>0.05779449765231579</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05278395937367807</v>
+        <v>0.05137961801488286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0505031016742948</v>
+        <v>0.0494111291254624</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04693780912745694</v>
+        <v>0.04601578470339477</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04363523041038759</v>
+        <v>0.04362483338075326</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04352547202890696</v>
+        <v>0.0419397999239084</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04084741013966876</v>
+        <v>0.04045012649036446</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0394385609170385</v>
+        <v>0.03906696264959705</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03879707576049771</v>
+        <v>0.03882425573428665</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03848317576605317</v>
+        <v>0.03795734671708675</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03787345351382607</v>
+        <v>0.03761693130795402</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03724442047804059</v>
+        <v>0.03706481857656186</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03702080957035631</v>
+        <v>0.03669644835510839</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03677046777697067</v>
+        <v>0.03640554096039761</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03674534420612349</v>
+        <v>0.03615869363443789</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8859622478485107</v>
+        <v>0.7031242847442627</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1828.195532337269</v>
+        <v>1905.348472241387</v>
       </c>
       <c r="F8" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09559259198588504</v>
+        <v>0.1007036288752944</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07983970950016832</v>
+        <v>0.07946318827017995</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06385700916261709</v>
+        <v>0.07009450254034896</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06224451395740783</v>
+        <v>0.05943356081180183</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05520803449708812</v>
+        <v>0.05669277646733819</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04803654831906039</v>
+        <v>0.05279198122545565</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04651619988188384</v>
+        <v>0.04971447293176867</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04472137378834307</v>
+        <v>0.04728085800719274</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04158827777034731</v>
+        <v>0.04352446006136094</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04005555283399322</v>
+        <v>0.04282995581924223</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03968983773451993</v>
+        <v>0.04142241657266323</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03777047866304083</v>
+        <v>0.04044523446675234</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03738777738114022</v>
+        <v>0.03889661795742109</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0373410083158101</v>
+        <v>0.03820346730827238</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03693977945467903</v>
+        <v>0.03800596266885135</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0364102126925479</v>
+        <v>0.03758576288017162</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03610696159360959</v>
+        <v>0.03744597526049239</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03578025965145772</v>
+        <v>0.03733795134652403</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03563733981164267</v>
+        <v>0.03714129575519272</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7600443363189697</v>
+        <v>0.703136682510376</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1859.476701560676</v>
+        <v>1935.458128910157</v>
       </c>
       <c r="F9" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1018456455457995</v>
+        <v>0.09534914520707652</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07642669390541622</v>
+        <v>0.07224515919959679</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0662875207459029</v>
+        <v>0.06623905826503551</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06096811851242031</v>
+        <v>0.05723152497131586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05535430876529676</v>
+        <v>0.05499973095315536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05139435371013513</v>
+        <v>0.05165286178759043</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04845400445263772</v>
+        <v>0.0484177578299974</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04400194625197619</v>
+        <v>0.04622649038476335</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04290089213128454</v>
+        <v>0.04456887353344412</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04137817078129767</v>
+        <v>0.0433201527890749</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04012148771695917</v>
+        <v>0.04270557937040182</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03919574647168485</v>
+        <v>0.04135898611660306</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0390041087332703</v>
+        <v>0.04041427346188384</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03801047283259336</v>
+        <v>0.03956561781697337</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03770285244448991</v>
+        <v>0.03900476392637871</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03695877933327263</v>
+        <v>0.03855643669713028</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03669498283627751</v>
+        <v>0.03807897066610921</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03633221163508583</v>
+        <v>0.03787559846842762</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0362471091922159</v>
+        <v>0.03772822863372625</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8550136089324951</v>
+        <v>0.7187502384185791</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1875.957288360174</v>
+        <v>1838.21125439734</v>
       </c>
       <c r="F10" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.103333939658221</v>
+        <v>0.1058780337508392</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0772017635954181</v>
+        <v>0.08210602197036311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06867376472846011</v>
+        <v>0.06794050498999592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05981947166553376</v>
+        <v>0.05918352216677716</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05601309983206555</v>
+        <v>0.05538444670318474</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05139302903966055</v>
+        <v>0.04927723239472025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04933991281748276</v>
+        <v>0.04792240452736134</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04602570641337909</v>
+        <v>0.04597571676709944</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04345642439561617</v>
+        <v>0.04262993203026734</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04229049859750215</v>
+        <v>0.0405487358257329</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04122639020479028</v>
+        <v>0.0405487358257329</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04038670482294072</v>
+        <v>0.03949815950609844</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03965889778285792</v>
+        <v>0.03823199609927602</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03891114803247517</v>
+        <v>0.03751166023074618</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03810509845225516</v>
+        <v>0.03669820422602187</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03755288435365225</v>
+        <v>0.03653204022592882</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03719330208788758</v>
+        <v>0.03630197082676493</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03700662171719931</v>
+        <v>0.03616521001987217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03656836819415543</v>
+        <v>0.03583257805842767</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.024041414260864</v>
+        <v>0.7031130790710449</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1876.658543102414</v>
+        <v>1905.831279267479</v>
       </c>
       <c r="F11" t="n">
         <v>0.1111425120770392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1020179677511811</v>
+        <v>0.1003861996418925</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07858346683044666</v>
+        <v>0.07384283783350278</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06857898783690122</v>
+        <v>0.06966025215566361</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05751394598643167</v>
+        <v>0.06407893081725483</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05441661153349211</v>
+        <v>0.05962623123572769</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05090784887702806</v>
+        <v>0.05303031933438934</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04774244864201192</v>
+        <v>0.05137566469027309</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04634050601284447</v>
+        <v>0.04725832973786386</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04370081190546359</v>
+        <v>0.04516137433891549</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04185035146484088</v>
+        <v>0.04213712632814529</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04123463553667175</v>
+        <v>0.04178215554414532</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04043926704734641</v>
+        <v>0.04035641349879685</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03948441162652163</v>
+        <v>0.03949328053575445</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03871486302921302</v>
+        <v>0.03876250710612907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03813108662109767</v>
+        <v>0.03807792600262717</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03766471618030463</v>
+        <v>0.03803680678635471</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03715303266029087</v>
+        <v>0.0375923985127471</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03677166917432255</v>
+        <v>0.03729040252534555</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03658203787724004</v>
+        <v>0.03715070719819646</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_07_simulated/details.xlsx
+++ b/result/gr100_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7220110893249512</v>
+        <v>1.51199746131897</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1823.946026437212</v>
+        <v>2079.833702892311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09755426506924006</v>
+        <v>0.1046978464327437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07550795654597584</v>
+        <v>0.08670570476509028</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06697381020525341</v>
+        <v>0.07390905033000368</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05987593863057437</v>
+        <v>0.06582214971571611</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05574161441637548</v>
+        <v>0.05845205668232498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04823549533296802</v>
+        <v>0.05262590202691655</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04595180715092104</v>
+        <v>0.05079474580444406</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04441975026484835</v>
+        <v>0.0476091867889111</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04276830668710583</v>
+        <v>0.04690039900655961</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04080214802851328</v>
+        <v>0.04569740408398586</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04000859774249649</v>
+        <v>0.04446165239812615</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03877391321004008</v>
+        <v>0.04398749152540059</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03858781520965183</v>
+        <v>0.0425546719451282</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0374887958356401</v>
+        <v>0.04204789131131006</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0369286922833125</v>
+        <v>0.04129415094710601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03672369529029165</v>
+        <v>0.04106983067256621</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03616662572769774</v>
+        <v>0.04078714127672181</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03599851515851746</v>
+        <v>0.04068608641518711</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03555450343932186</v>
+        <v>0.0405425673078423</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8376443386077881</v>
+        <v>1.705002784729004</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1920.719378025262</v>
+        <v>2038.937668118537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09607233796459398</v>
+        <v>0.1038994889086128</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08433468883053087</v>
+        <v>0.08680498896299618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07376400577307486</v>
+        <v>0.07148908951482578</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06089228016560137</v>
+        <v>0.06053506220453538</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05560544506762369</v>
+        <v>0.05685773156125834</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05073648509466843</v>
+        <v>0.05345778748322966</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04898786712668331</v>
+        <v>0.05036450156899213</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04535042575653891</v>
+        <v>0.04858440223679898</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04351389479441652</v>
+        <v>0.04615648514149714</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04163223637581933</v>
+        <v>0.04463076432366069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04141649103004245</v>
+        <v>0.04356780593749897</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03982333529340368</v>
+        <v>0.04248362824236813</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03982333529340368</v>
+        <v>0.04162837034194226</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03898243912339753</v>
+        <v>0.04110084746464106</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0383735856373338</v>
+        <v>0.04080390334867321</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03809145371784466</v>
+        <v>0.04039534564531873</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03781107411420781</v>
+        <v>0.04006369357557517</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03749893669352677</v>
+        <v>0.03995632305817289</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03744092354825071</v>
+        <v>0.03974537364753482</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7041990756988525</v>
+        <v>1.415000438690186</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1886.015702659501</v>
+        <v>2052.174818160916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1037707458911285</v>
+        <v>0.1048996092386553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07992326389406258</v>
+        <v>0.08557389090558423</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06791069735184614</v>
+        <v>0.07180160977952758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06163287338387032</v>
+        <v>0.06533423509687646</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05591880462104015</v>
+        <v>0.05804220910539257</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05220236302705725</v>
+        <v>0.05381636819658082</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04951235336616199</v>
+        <v>0.05124276430580068</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04667236603712394</v>
+        <v>0.0488527778507403</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04471364762593191</v>
+        <v>0.04632522773310277</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04278368768147681</v>
+        <v>0.04423955746012088</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04218357575354013</v>
+        <v>0.04394451853845266</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03932815765306952</v>
+        <v>0.04263941486137949</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03883567549070741</v>
+        <v>0.0414533729944305</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03818919790285589</v>
+        <v>0.04119520958578951</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03762709490733979</v>
+        <v>0.0409719498504208</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03726176753103055</v>
+        <v>0.04068907787013366</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03702184489040632</v>
+        <v>0.04042239214254753</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0368001986716062</v>
+        <v>0.04016467811261279</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03676443864833333</v>
+        <v>0.04000340776142137</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7344028949737549</v>
+        <v>1.802998542785645</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1931.105843338913</v>
+        <v>2008.763839129748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09972497870805652</v>
+        <v>0.1035703143463855</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07513082189433373</v>
+        <v>0.08292492226883169</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06854983708743935</v>
+        <v>0.07058879197472448</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06243985869062176</v>
+        <v>0.06435097485154793</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05725564188087752</v>
+        <v>0.05894780536718696</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05168611458303569</v>
+        <v>0.05480669207304058</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04869201823428484</v>
+        <v>0.0504595454847124</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0462414341308875</v>
+        <v>0.04861714865441696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04383203667808887</v>
+        <v>0.04580839644987819</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04208470042088369</v>
+        <v>0.044181219632447</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04095163990377351</v>
+        <v>0.04306761390738865</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03961527453832409</v>
+        <v>0.04166304960370325</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03831237853053068</v>
+        <v>0.04068396394608849</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03831237853053068</v>
+        <v>0.04017238656925051</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03831237853053068</v>
+        <v>0.03997955294821733</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03826520469065586</v>
+        <v>0.03972179487761587</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03808250152023961</v>
+        <v>0.03943950027157461</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03781917945394159</v>
+        <v>0.03929656056610993</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03764338875904314</v>
+        <v>0.03915718984658377</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7187607288360596</v>
+        <v>1.445000648498535</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1884.856715977297</v>
+        <v>2098.81305375008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1014846073387392</v>
+        <v>0.1040133364878942</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08414089153894179</v>
+        <v>0.08361693345235156</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07123269455373123</v>
+        <v>0.07182203448931962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06055507959823386</v>
+        <v>0.06434495783869608</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05499682706365457</v>
+        <v>0.05973226035362898</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05108291196578486</v>
+        <v>0.05667219105066454</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04760584005438271</v>
+        <v>0.0533660064743588</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04477477974950918</v>
+        <v>0.04945652927863348</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04277751515394787</v>
+        <v>0.04705963957481313</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04118777923749412</v>
+        <v>0.04612284797348569</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04059687347772081</v>
+        <v>0.04503372371564589</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03993539287764056</v>
+        <v>0.04366569357391826</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03916631684820188</v>
+        <v>0.04331279918777034</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03812719086749505</v>
+        <v>0.04227074418231552</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03746007862497041</v>
+        <v>0.04200742157649648</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03739243728132347</v>
+        <v>0.04165258842810322</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03722061967454487</v>
+        <v>0.04136708930821322</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03702335885966018</v>
+        <v>0.0409421428435264</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03674184631534692</v>
+        <v>0.04091253516082027</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7187397480010986</v>
+        <v>1.54804253578186</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1854.940983446664</v>
+        <v>2026.03092686823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1089045159863328</v>
+        <v>0.1047372430564227</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08421659745009211</v>
+        <v>0.08439128665721859</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0700224624433204</v>
+        <v>0.06988654839806971</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06279322913652802</v>
+        <v>0.06280280292160967</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05779449765231579</v>
+        <v>0.0580200278042592</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05137961801488286</v>
+        <v>0.05478901067073</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0494111291254624</v>
+        <v>0.05255540954034801</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04601578470339477</v>
+        <v>0.04944094479598955</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04362483338075326</v>
+        <v>0.04826787343748706</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0419397999239084</v>
+        <v>0.04583166538502016</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04045012649036446</v>
+        <v>0.04446382736025691</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03906696264959705</v>
+        <v>0.04271577528226569</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03882425573428665</v>
+        <v>0.04187610314028494</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03795734671708675</v>
+        <v>0.04150959013153216</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03761693130795402</v>
+        <v>0.04085032024474697</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03706481857656186</v>
+        <v>0.04033571877496198</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03669644835510839</v>
+        <v>0.0398425065060766</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03640554096039761</v>
+        <v>0.03962578082754641</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03615869363443789</v>
+        <v>0.03949378025084269</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7031242847442627</v>
+        <v>1.514000177383423</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1905.348472241387</v>
+        <v>1974.683112871675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1007036288752944</v>
+        <v>0.1027741722434948</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07946318827017995</v>
+        <v>0.08158773619270858</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07009450254034896</v>
+        <v>0.06853498391267301</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05943356081180183</v>
+        <v>0.06030024660995889</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05669277646733819</v>
+        <v>0.0564400495448906</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05279198122545565</v>
+        <v>0.05178004705189682</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04971447293176867</v>
+        <v>0.04858837441721635</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04728085800719274</v>
+        <v>0.04575211372421718</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04352446006136094</v>
+        <v>0.04470062432103328</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04282995581924223</v>
+        <v>0.04322773246943647</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04142241657266323</v>
+        <v>0.04189719580848435</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04044523446675234</v>
+        <v>0.04118804894329826</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03889661795742109</v>
+        <v>0.04018955622110286</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03820346730827238</v>
+        <v>0.03963089521685492</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03800596266885135</v>
+        <v>0.03926935852117994</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03758576288017162</v>
+        <v>0.03895193924283496</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03744597526049239</v>
+        <v>0.0388074620687009</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03733795134652403</v>
+        <v>0.03862381525560658</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03714129575519272</v>
+        <v>0.03849284820412621</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.703136682510376</v>
+        <v>1.60501766204834</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1935.458128910157</v>
+        <v>2075.667686173425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09534914520707652</v>
+        <v>0.103435246006345</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07224515919959679</v>
+        <v>0.08496726109185798</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06623905826503551</v>
+        <v>0.07313702618065152</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05723152497131586</v>
+        <v>0.06447139812128062</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05499973095315536</v>
+        <v>0.05814619266518838</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05165286178759043</v>
+        <v>0.05325352028123926</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0484177578299974</v>
+        <v>0.05062630443277006</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04622649038476335</v>
+        <v>0.04839848159449864</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04456887353344412</v>
+        <v>0.04647885980200781</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0433201527890749</v>
+        <v>0.04543066248641141</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04270557937040182</v>
+        <v>0.04451101379934556</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04135898611660306</v>
+        <v>0.04310594117454055</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04041427346188384</v>
+        <v>0.04254996804049461</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03956561781697337</v>
+        <v>0.04210921269641679</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03900476392637871</v>
+        <v>0.04156394649014403</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03855643669713028</v>
+        <v>0.0412087068995173</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03807897066610921</v>
+        <v>0.04083577166733238</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03787559846842762</v>
+        <v>0.04046135840494005</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03772822863372625</v>
+        <v>0.04046135840494005</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7187502384185791</v>
+        <v>1.515998125076294</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1838.21125439734</v>
+        <v>2044.110134831099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1058780337508392</v>
+        <v>0.101467035841154</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08210602197036311</v>
+        <v>0.08456375833187919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06794050498999592</v>
+        <v>0.07199023280576933</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05918352216677716</v>
+        <v>0.06429386321466224</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05538444670318474</v>
+        <v>0.05803216301735109</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04927723239472025</v>
+        <v>0.0526154203690779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04792240452736134</v>
+        <v>0.05149959105390813</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04597571676709944</v>
+        <v>0.04888738908206169</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04262993203026734</v>
+        <v>0.04576861603422703</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0405487358257329</v>
+        <v>0.04380687031191129</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0405487358257329</v>
+        <v>0.04304849710058537</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03949815950609844</v>
+        <v>0.04226810740608188</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03823199609927602</v>
+        <v>0.04158109062853486</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03751166023074618</v>
+        <v>0.04128014286313924</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03669820422602187</v>
+        <v>0.04078539784959424</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03653204022592882</v>
+        <v>0.0405537769722306</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03630197082676493</v>
+        <v>0.04011571137810088</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03616521001987217</v>
+        <v>0.03986602160099113</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03583257805842767</v>
+        <v>0.03984620145869586</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7031130790710449</v>
+        <v>1.415998935699463</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1905.831279267479</v>
+        <v>2011.177426735016</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1111425120770392</v>
+        <v>0.1208368762573507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1003861996418925</v>
+        <v>0.1015972059999203</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07384283783350278</v>
+        <v>0.08102264183393888</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06966025215566361</v>
+        <v>0.06668870824595614</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06407893081725483</v>
+        <v>0.06308710562886734</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05962623123572769</v>
+        <v>0.05753844622481971</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05303031933438934</v>
+        <v>0.05417465232824378</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05137566469027309</v>
+        <v>0.04937579822456258</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04725832973786386</v>
+        <v>0.0477483613780106</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04516137433891549</v>
+        <v>0.04564941176363707</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04213712632814529</v>
+        <v>0.04393442406055611</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04178215554414532</v>
+        <v>0.04199635390246673</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04035641349879685</v>
+        <v>0.04139168961131439</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03949328053575445</v>
+        <v>0.04115529381363594</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03876250710612907</v>
+        <v>0.04068040249330728</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03807792600262717</v>
+        <v>0.04035430737187006</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03803680678635471</v>
+        <v>0.03995719438863937</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0375923985127471</v>
+        <v>0.03967875427208662</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03729040252534555</v>
+        <v>0.03935213183677796</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03715070719819646</v>
+        <v>0.03920423833791453</v>
       </c>
     </row>
   </sheetData>
